--- a/Watchlist .xlsx
+++ b/Watchlist .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B9EB43-3EE3-45C4-AA07-8CB6B4246B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C65273-CB30-499E-B7A9-C7DF0889C2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{17ABFCAF-F8B8-4F77-A601-F3F3D02F1763}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{17ABFCAF-F8B8-4F77-A601-F3F3D02F1763}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Watchlist</t>
   </si>
@@ -102,13 +103,34 @@
     <t>Target</t>
   </si>
   <si>
-    <t>Under Armor</t>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>Snap Inc</t>
+  </si>
+  <si>
+    <t>Snap</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possible acquisition target </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -172,6 +194,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -224,8 +250,47 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>7.44</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>12572.354291040001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>2893.0450000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>3575.9720000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -548,11 +613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2564A331-3821-4718-A769-006CA9DC39E7}">
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,17 +626,17 @@
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -611,8 +676,14 @@
       <c r="M4" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -629,106 +700,181 @@
         <f>+[1]Main!$J$2</f>
         <v>99.2</v>
       </c>
-      <c r="F5">
-        <f>+[1]Main!$J$4</f>
-        <v>1995.0458208000002</v>
-      </c>
-      <c r="G5">
-        <f>+[1]Main!$J$6-[1]Main!$J$5</f>
-        <v>134.03200000000004</v>
-      </c>
-      <c r="H5">
+      <c r="F5" s="9">
+        <f>+[1]Main!$J$4*FX!C2</f>
+        <v>2334.2036103360001</v>
+      </c>
+      <c r="G5" s="9">
+        <f>(+[1]Main!$J$6-[1]Main!$J$5)*FX!C2</f>
+        <v>156.81744000000003</v>
+      </c>
+      <c r="H5" s="9">
         <f>+F5+G5</f>
-        <v>2129.0778208000002</v>
+        <v>2491.0210503360004</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="J5" s="7">
+        <v>45965</v>
+      </c>
       <c r="K5" s="7">
         <v>45888</v>
       </c>
       <c r="L5">
         <v>99.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f>+A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <f>+[2]Main!$I$2</f>
+        <v>7.44</v>
+      </c>
+      <c r="F6" s="9">
+        <f>+[2]Main!$I$4</f>
+        <v>12572.354291040001</v>
+      </c>
+      <c r="G6" s="9">
+        <f>+[2]Main!$I$6-[2]Main!$I$5</f>
+        <v>682.92700000000013</v>
+      </c>
+      <c r="H6" s="9">
+        <f>+F6+G6</f>
+        <v>13255.281291040001</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="7">
+        <v>45897</v>
+      </c>
+      <c r="K6" s="7">
+        <v>45889</v>
+      </c>
+      <c r="L6">
+        <v>7.44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" ref="A7:A47" si="0">+A6+1</f>
         <v>3</v>
       </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -736,6 +882,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -743,6 +892,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -750,6 +902,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -757,6 +912,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -764,6 +922,9 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -771,6 +932,9 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -778,6 +942,9 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -785,6 +952,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -792,6 +962,9 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -799,6 +972,9 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -806,6 +982,9 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -813,6 +992,9 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -820,6 +1002,9 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -827,6 +1012,9 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -834,6 +1022,9 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -841,6 +1032,9 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -848,6 +1042,9 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -855,6 +1052,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -862,6 +1062,9 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -869,6 +1072,9 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -876,6 +1082,9 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -883,6 +1092,9 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -890,6 +1102,9 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -897,6 +1112,9 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -904,6 +1122,9 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -911,6 +1132,9 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -918,6 +1142,9 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -925,6 +1152,9 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -932,6 +1162,9 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -939,6 +1172,9 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -946,10 +1182,16 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1215,6 +1457,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{862DA998-AAD8-4A5B-8534-7DC3EDBC4AB2}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{43C60588-2186-4192-B5F7-DBC392710280}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Watchlist .xlsx
+++ b/Watchlist .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C65273-CB30-499E-B7A9-C7DF0889C2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9ED6FE-98DD-43E9-8F7F-0C0A154EB305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{17ABFCAF-F8B8-4F77-A601-F3F3D02F1763}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Watchlist</t>
   </si>
@@ -122,6 +123,18 @@
   </si>
   <si>
     <t xml:space="preserve">Possible acquisition target </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lululemon </t>
+  </si>
+  <si>
+    <t>LULU</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -290,7 +303,50 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financials"/>
+      <sheetName val="Ratios"/>
+      <sheetName val="DCF"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>198.37</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>22758.8770291</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>1325.2719999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>271.07600000000002</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -617,7 +673,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,10 +838,46 @@
         <f t="shared" ref="A7:A47" si="0">+A6+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <f>+[3]Main!$I$2</f>
+        <v>198.37</v>
+      </c>
+      <c r="F7" s="9">
+        <f>+[3]Main!$I$4</f>
+        <v>22758.8770291</v>
+      </c>
+      <c r="G7" s="9">
+        <f>+[3]Main!$I$6-[3]Main!$I$5</f>
+        <v>-1054.1959999999999</v>
+      </c>
+      <c r="H7" s="9">
+        <f>+F7+G7</f>
+        <v>21704.6810291</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="7">
+        <v>45904</v>
+      </c>
+      <c r="K7" s="7">
+        <v>45891</v>
+      </c>
+      <c r="L7">
+        <v>198.37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1458,6 +1550,7 @@
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{862DA998-AAD8-4A5B-8534-7DC3EDBC4AB2}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{43C60588-2186-4192-B5F7-DBC392710280}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{6A12FCF3-584D-4323-A41F-B970C6FF1200}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
